--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD49599F-6EA1-4B5C-935F-FDCCF92C821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF82E00A-984B-4473-8960-0DF6A2D4DB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,8 +471,8 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>0</v>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF82E00A-984B-4473-8960-0DF6A2D4DB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F410F-BCC7-48A8-893A-75219200E3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$371</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>Boneco</t>
   </si>
@@ -151,6 +162,12 @@
   </si>
   <si>
     <t>Tiago</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Dogão</t>
   </si>
 </sst>
 </file>
@@ -468,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U70" sqref="U70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,6 +1972,742 @@
         <v>7</v>
       </c>
     </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F410F-BCC7-48A8-893A-75219200E3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BF9CC5-0AD4-4BD5-B18E-4EEB05A8077D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <t>Boneco</t>
   </si>
@@ -161,13 +161,16 @@
     <t>Davi Raposao</t>
   </si>
   <si>
-    <t>Tiago</t>
-  </si>
-  <si>
     <t>Eduardo</t>
   </si>
   <si>
     <t>Dogão</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>Bruno</t>
   </si>
 </sst>
 </file>
@@ -485,11 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U70" sqref="U70"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,7 +1721,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -2166,7 +2169,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2230,7 +2233,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2454,7 +2457,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2705,6 +2708,774 @@
         <v>0</v>
       </c>
       <c r="K69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
         <v>6</v>
       </c>
     </row>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BF9CC5-0AD4-4BD5-B18E-4EEB05A8077D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8FFBD1-8F01-4078-A79C-738BE0F8DD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="46">
   <si>
     <t>Boneco</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Bruno</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>Miqueias</t>
   </si>
 </sst>
 </file>
@@ -488,11 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3479,6 +3485,710 @@
         <v>6</v>
       </c>
     </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>6</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8FFBD1-8F01-4078-A79C-738BE0F8DD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA23D34-BDFB-4F52-8498-5D6B273A51F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="47">
   <si>
     <t>Boneco</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Miqueias</t>
+  </si>
+  <si>
+    <t>Paulo</t>
   </si>
 </sst>
 </file>
@@ -494,11 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4189,6 +4192,710 @@
         <v>13</v>
       </c>
     </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136">
+        <v>6</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>6</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA23D34-BDFB-4F52-8498-5D6B273A51F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DC663E-B93B-4221-9F0F-6FC742320EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
   <si>
     <t>Boneco</t>
   </si>
@@ -497,11 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K138" sqref="K138"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4896,6 +4896,774 @@
         <v>10</v>
       </c>
     </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>29</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>4</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DC663E-B93B-4221-9F0F-6FC742320EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59B44C-BB39-4BFC-BC7B-7389E77A6793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="48">
   <si>
     <t>Boneco</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Paulo</t>
+  </si>
+  <si>
+    <t>leandrão</t>
   </si>
 </sst>
 </file>
@@ -497,11 +500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K162" sqref="K162"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5664,6 +5667,774 @@
         <v>3</v>
       </c>
     </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>4</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163">
+        <v>5</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>5</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="F165">
+        <v>3</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>47</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>30</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>32</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>35</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>36</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59B44C-BB39-4BFC-BC7B-7389E77A6793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FBA684-EB0E-42FC-B856-2A56DD89DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="50">
   <si>
     <t>Boneco</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>leandrão</t>
+  </si>
+  <si>
+    <t>Macarrão</t>
+  </si>
+  <si>
+    <t>Dudu</t>
   </si>
 </sst>
 </file>
@@ -500,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K185"/>
+  <dimension ref="A1:K209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J214" sqref="J214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6435,6 +6441,774 @@
         <v>4</v>
       </c>
     </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>44</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>37</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>3</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>36</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195">
+        <v>4</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>3</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>3</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>48</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>49</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>4</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>35</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>29</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>3</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>3</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>41</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>3</v>
+      </c>
+      <c r="F206">
+        <v>2</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>43</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>3</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>32</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>3</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FBA684-EB0E-42FC-B856-2A56DD89DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA5F13-4C54-48CC-BF5E-FC32A73CC9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="52">
   <si>
     <t>Boneco</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Dudu</t>
+  </si>
+  <si>
+    <t>Geovane</t>
+  </si>
+  <si>
+    <t>Caio</t>
   </si>
 </sst>
 </file>
@@ -506,11 +512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K209"/>
+  <dimension ref="A1:K232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J214" sqref="J214"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7209,6 +7215,742 @@
         <v>7</v>
       </c>
     </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>5</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>35</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>37</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>4</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>33</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>4</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>4</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>2</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>50</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>4</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221">
+        <v>4</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>38</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>3</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>3</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>51</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>4</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>4</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>4</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>4</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>3</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>4</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>25</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <v>4</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>26</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>32</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>4</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA5F13-4C54-48CC-BF5E-FC32A73CC9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02460329-FBE4-4E6E-BC13-CE42DD6EDBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="55">
   <si>
     <t>Boneco</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>Caio</t>
+  </si>
+  <si>
+    <t>Jessé</t>
+  </si>
+  <si>
+    <t>Davi</t>
+  </si>
+  <si>
+    <t>Luiz Goleiro</t>
   </si>
 </sst>
 </file>
@@ -512,11 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K232"/>
+  <dimension ref="A1:K254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A233" sqref="A233"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7951,6 +7960,710 @@
         <v>3</v>
       </c>
     </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>52</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234">
+        <v>5</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>3</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>5</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>3</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>41</v>
+      </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236">
+        <v>3</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>3</v>
+      </c>
+      <c r="F238">
+        <v>2</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>30</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>3</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>3</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>3</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>3</v>
+      </c>
+      <c r="F243">
+        <v>3</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>11</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>3</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>3</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>3</v>
+      </c>
+      <c r="F246">
+        <v>2</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>53</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>3</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>43</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>2</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>2</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>51</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>2</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>2</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>50</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>2</v>
+      </c>
+      <c r="F252">
+        <v>3</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>32</v>
+      </c>
+      <c r="C253">
+        <v>6</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>4</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>54</v>
+      </c>
+      <c r="C254">
+        <v>4</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254">
+        <v>6</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02460329-FBE4-4E6E-BC13-CE42DD6EDBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1DDDBE-C6E4-4C1B-9194-6502B21AD6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="57">
   <si>
     <t>Boneco</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>Luiz Goleiro</t>
+  </si>
+  <si>
+    <t>Ranyeri</t>
+  </si>
+  <si>
+    <t>Joaozinho</t>
   </si>
 </sst>
 </file>
@@ -521,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K254"/>
+  <dimension ref="A1:K276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A256" sqref="A256"/>
+      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8664,6 +8670,710 @@
         <v>14</v>
       </c>
     </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>55</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+      <c r="D255">
+        <v>3</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>56</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+      <c r="D258">
+        <v>3</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>41</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>4</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>4</v>
+      </c>
+      <c r="F261">
+        <v>6</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>30</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>4</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>49</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>4</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264">
+        <v>3</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>4</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>44</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>3</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>51</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>3</v>
+      </c>
+      <c r="F266">
+        <v>2</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>33</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>3</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>3</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>3</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>37</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>3</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>38</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>26</v>
+      </c>
+      <c r="C275">
+        <v>6</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <v>3</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>32</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276">
+        <v>6</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1DDDBE-C6E4-4C1B-9194-6502B21AD6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D85DD0-3033-4B47-8213-1FE7523772DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="57">
   <si>
     <t>Boneco</t>
   </si>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K276"/>
+  <dimension ref="A1:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K300" sqref="K300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9374,6 +9374,742 @@
         <v>13</v>
       </c>
     </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>30</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>5</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>5</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>2</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>5</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>5</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>3</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>5</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282">
+        <v>2</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>45</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284">
+        <v>2</v>
+      </c>
+      <c r="F284">
+        <v>2</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>38</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285">
+        <v>2</v>
+      </c>
+      <c r="E285">
+        <v>2</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
+        <v>3</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>3</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>9</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <v>3</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>40</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>3</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>51</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+      <c r="D290">
+        <v>3</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>53</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>3</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>8</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>4</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>35</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>52</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>4</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>50</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>4</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>4</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>26</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>3</v>
+      </c>
+      <c r="E297">
+        <v>4</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>25</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+      <c r="D298">
+        <v>3</v>
+      </c>
+      <c r="E298">
+        <v>2</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>32</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+      <c r="D299">
+        <v>4</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Fernando.Resende\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D85DD0-3033-4B47-8213-1FE7523772DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
@@ -19,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$371</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="59">
   <si>
     <t>Boneco</t>
   </si>
@@ -211,12 +205,18 @@
   <si>
     <t>Joaozinho</t>
   </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Igor Goleiro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,27 +519,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K300" sqref="K300"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M293" sqref="M293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -574,7 +574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>45</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>46</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
         <v>34</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>41</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>35</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
         <v>47</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
         <v>29</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
         <v>30</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
         <v>25</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
         <v>30</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190" t="s">
         <v>44</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>36</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>48</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>35</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>3</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>41</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
         <v>35</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
         <v>37</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
         <v>33</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
         <v>50</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
         <v>1</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
         <v>38</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
         <v>3</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11">
       <c r="A225" t="s">
         <v>51</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11">
       <c r="A229" t="s">
         <v>30</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231" t="s">
         <v>26</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11">
       <c r="A232" t="s">
         <v>32</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11">
       <c r="A233" t="s">
         <v>52</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11">
       <c r="A239" t="s">
         <v>30</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11">
       <c r="A247" t="s">
         <v>53</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11">
       <c r="A248" t="s">
         <v>43</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11">
       <c r="A249" t="s">
         <v>2</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11">
       <c r="A250" t="s">
         <v>51</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11">
       <c r="A252" t="s">
         <v>50</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11">
       <c r="A253" t="s">
         <v>32</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11">
       <c r="A254" t="s">
         <v>54</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11">
       <c r="A255" t="s">
         <v>55</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11">
       <c r="A256" t="s">
         <v>56</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11">
       <c r="A259" t="s">
         <v>41</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11">
       <c r="A260" t="s">
         <v>15</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11">
       <c r="A262" t="s">
         <v>30</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11">
       <c r="A263" t="s">
         <v>49</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11">
       <c r="A265" t="s">
         <v>44</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11">
       <c r="A266" t="s">
         <v>51</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11">
       <c r="A267" t="s">
         <v>33</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11">
       <c r="A269" t="s">
         <v>2</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11">
       <c r="A270" t="s">
         <v>37</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11">
       <c r="A271" t="s">
         <v>3</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11">
       <c r="A273" t="s">
         <v>10</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11">
       <c r="A274" t="s">
         <v>38</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11">
       <c r="A277" t="s">
         <v>30</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="A279" t="s">
         <v>2</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="A283" t="s">
         <v>45</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11">
       <c r="A285" t="s">
         <v>38</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11">
       <c r="A290" t="s">
         <v>51</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11">
       <c r="A291" t="s">
         <v>53</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11">
       <c r="A293" t="s">
         <v>35</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11">
       <c r="A294" t="s">
         <v>52</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11">
       <c r="A295" t="s">
         <v>50</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11">
       <c r="A296" t="s">
         <v>3</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11">
       <c r="A297" t="s">
         <v>26</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11">
       <c r="A298" t="s">
         <v>25</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -10110,8 +10110,744 @@
         <v>3</v>
       </c>
     </row>
+    <row r="300" spans="1:11">
+      <c r="A300" t="s">
+        <v>2</v>
+      </c>
+      <c r="C300">
+        <v>4</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>3</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
+      <c r="A301" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301">
+        <v>4</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>3</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
+      <c r="A302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302">
+        <v>4</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>3</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
+      <c r="A303" t="s">
+        <v>38</v>
+      </c>
+      <c r="C303">
+        <v>4</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>3</v>
+      </c>
+      <c r="F303">
+        <v>3</v>
+      </c>
+      <c r="G303">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
+      <c r="A304" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304">
+        <v>4</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>3</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
+      <c r="A305" t="s">
+        <v>35</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305">
+        <v>3</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+      <c r="E306">
+        <v>3</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
+      <c r="A307" t="s">
+        <v>51</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>2</v>
+      </c>
+      <c r="E307">
+        <v>3</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
+      <c r="A308" t="s">
+        <v>57</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>2</v>
+      </c>
+      <c r="E308">
+        <v>3</v>
+      </c>
+      <c r="F308">
+        <v>2</v>
+      </c>
+      <c r="G308">
+        <v>1</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
+      <c r="A309" t="s">
+        <v>15</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+      <c r="E309">
+        <v>3</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
+      <c r="A310" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+      <c r="E310">
+        <v>2</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="G310">
+        <v>1</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
+      <c r="A311" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311">
+        <v>2</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+      <c r="E312">
+        <v>2</v>
+      </c>
+      <c r="F312">
+        <v>2</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11">
+      <c r="A313" t="s">
+        <v>45</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+      <c r="E313">
+        <v>2</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11">
+      <c r="A314" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+      <c r="E314">
+        <v>2</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11">
+      <c r="A315" t="s">
+        <v>30</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11">
+      <c r="A316" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>2</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11">
+      <c r="A317" t="s">
+        <v>8</v>
+      </c>
+      <c r="C317">
+        <v>3</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11">
+      <c r="A318" t="s">
+        <v>33</v>
+      </c>
+      <c r="C318">
+        <v>3</v>
+      </c>
+      <c r="D318">
+        <v>2</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>4</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>1</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11">
+      <c r="A319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>3</v>
+      </c>
+      <c r="D319">
+        <v>2</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11">
+      <c r="A320" t="s">
+        <v>58</v>
+      </c>
+      <c r="C320">
+        <v>4</v>
+      </c>
+      <c r="D320">
+        <v>3</v>
+      </c>
+      <c r="E320">
+        <v>2</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11">
+      <c r="A321" t="s">
+        <v>26</v>
+      </c>
+      <c r="C321">
+        <v>3</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>4</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11">
+      <c r="A322" t="s">
+        <v>32</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>2</v>
+      </c>
+      <c r="E322">
+        <v>3</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>1</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K371"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$371</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="59">
   <si>
     <t>Boneco</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Jessé</t>
   </si>
   <si>
-    <t>Davi</t>
-  </si>
-  <si>
     <t>Luiz Goleiro</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>Igor Goleiro</t>
+  </si>
+  <si>
+    <t>Guilherme</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K322"/>
+  <dimension ref="A1:K345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M293" sqref="M293"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K346" sqref="K346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C254">
         <v>4</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C255">
         <v>3</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C256">
         <v>3</v>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C291">
         <v>2</v>
@@ -10368,7 +10368,7 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -10752,7 +10752,7 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C320">
         <v>4</v>
@@ -10844,6 +10844,742 @@
       </c>
       <c r="K322">
         <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11">
+      <c r="A323" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>5</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11">
+      <c r="A324" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>5</v>
+      </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11">
+      <c r="A325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>5</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11">
+      <c r="A326" t="s">
+        <v>33</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>5</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
+      <c r="A327" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>5</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11">
+      <c r="A328" t="s">
+        <v>13</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>2</v>
+      </c>
+      <c r="E328">
+        <v>2</v>
+      </c>
+      <c r="F328">
+        <v>2</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11">
+      <c r="A329" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+      <c r="E329">
+        <v>2</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
+      <c r="A330" t="s">
+        <v>14</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>2</v>
+      </c>
+      <c r="E330">
+        <v>2</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11">
+      <c r="A331" t="s">
+        <v>44</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>2</v>
+      </c>
+      <c r="E331">
+        <v>2</v>
+      </c>
+      <c r="F331">
+        <v>3</v>
+      </c>
+      <c r="G331">
+        <v>1</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11">
+      <c r="A332" t="s">
+        <v>2</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
+      </c>
+      <c r="E332">
+        <v>2</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11">
+      <c r="A333" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333">
+        <v>6</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11">
+      <c r="A334" t="s">
+        <v>50</v>
+      </c>
+      <c r="C334">
+        <v>6</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11">
+      <c r="A335" t="s">
+        <v>39</v>
+      </c>
+      <c r="C335">
+        <v>6</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11">
+      <c r="A336" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336">
+        <v>6</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>5</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>1</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11">
+      <c r="A337" t="s">
+        <v>38</v>
+      </c>
+      <c r="C337">
+        <v>6</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>4</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>1</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11">
+      <c r="A338" t="s">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>2</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339">
+        <v>2</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11">
+      <c r="A340" t="s">
+        <v>58</v>
+      </c>
+      <c r="C340">
+        <v>2</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>2</v>
+      </c>
+      <c r="F340">
+        <v>2</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11">
+      <c r="A341" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>2</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11">
+      <c r="A342" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>2</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11">
+      <c r="A343" t="s">
+        <v>26</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>5</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11">
+      <c r="A344" t="s">
+        <v>32</v>
+      </c>
+      <c r="C344">
+        <v>7</v>
+      </c>
+      <c r="D344">
+        <v>2</v>
+      </c>
+      <c r="E344">
+        <v>2</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
+      <c r="A345" t="s">
+        <v>57</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>3</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>1</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="61">
   <si>
     <t>Boneco</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Guilherme</t>
+  </si>
+  <si>
+    <t>Leadrinho</t>
+  </si>
+  <si>
+    <t>Carlin</t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,11 +533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:K369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K346" sqref="K346"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G370" sqref="G370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11582,6 +11588,774 @@
         <v>6</v>
       </c>
     </row>
+    <row r="346" spans="1:11">
+      <c r="A346" t="s">
+        <v>59</v>
+      </c>
+      <c r="C346">
+        <v>6</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+      <c r="E346">
+        <v>2</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
+      <c r="A347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>6</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347">
+        <v>2</v>
+      </c>
+      <c r="F347">
+        <v>5</v>
+      </c>
+      <c r="G347">
+        <v>1</v>
+      </c>
+      <c r="H347">
+        <v>1</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11">
+      <c r="A348" t="s">
+        <v>30</v>
+      </c>
+      <c r="C348">
+        <v>6</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348">
+        <v>2</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>1</v>
+      </c>
+      <c r="H348">
+        <v>1</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <v>6</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>2</v>
+      </c>
+      <c r="F349">
+        <v>1</v>
+      </c>
+      <c r="G349">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11">
+      <c r="A350" t="s">
+        <v>36</v>
+      </c>
+      <c r="C350">
+        <v>6</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>2</v>
+      </c>
+      <c r="F350">
+        <v>6</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11">
+      <c r="A351" t="s">
+        <v>25</v>
+      </c>
+      <c r="C351">
+        <v>6</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>2</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11">
+      <c r="A352" t="s">
+        <v>33</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>6</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>1</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11">
+      <c r="A353" t="s">
+        <v>15</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>6</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11">
+      <c r="A354" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>6</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+      <c r="G354">
+        <v>1</v>
+      </c>
+      <c r="H354">
+        <v>0</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11">
+      <c r="A355" t="s">
+        <v>38</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>6</v>
+      </c>
+      <c r="F355">
+        <v>1</v>
+      </c>
+      <c r="G355">
+        <v>1</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11">
+      <c r="A356" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>6</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11">
+      <c r="A357" t="s">
+        <v>26</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>6</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11">
+      <c r="A358" t="s">
+        <v>13</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358">
+        <v>2</v>
+      </c>
+      <c r="E358">
+        <v>2</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358">
+        <v>1</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11">
+      <c r="A359" t="s">
+        <v>45</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>2</v>
+      </c>
+      <c r="E359">
+        <v>2</v>
+      </c>
+      <c r="F359">
+        <v>1</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11">
+      <c r="A360" t="s">
+        <v>60</v>
+      </c>
+      <c r="C360">
+        <v>2</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+      <c r="E360">
+        <v>2</v>
+      </c>
+      <c r="F360">
+        <v>2</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11">
+      <c r="A361" t="s">
+        <v>51</v>
+      </c>
+      <c r="C361">
+        <v>2</v>
+      </c>
+      <c r="D361">
+        <v>2</v>
+      </c>
+      <c r="E361">
+        <v>2</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11">
+      <c r="A362" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+      <c r="E362">
+        <v>2</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11">
+      <c r="A363" t="s">
+        <v>57</v>
+      </c>
+      <c r="C363">
+        <v>2</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+      <c r="E363">
+        <v>2</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>1</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11">
+      <c r="A364" t="s">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>3</v>
+      </c>
+      <c r="D364">
+        <v>3</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364">
+        <v>3</v>
+      </c>
+      <c r="G364">
+        <v>1</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="C365">
+        <v>3</v>
+      </c>
+      <c r="D365">
+        <v>3</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+      <c r="F365">
+        <v>2</v>
+      </c>
+      <c r="G365">
+        <v>1</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11">
+      <c r="A366" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366">
+        <v>3</v>
+      </c>
+      <c r="D366">
+        <v>3</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="F366">
+        <v>2</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11">
+      <c r="A367" t="s">
+        <v>2</v>
+      </c>
+      <c r="C367">
+        <v>3</v>
+      </c>
+      <c r="D367">
+        <v>3</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367">
+        <v>2</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11">
+      <c r="A368" t="s">
+        <v>14</v>
+      </c>
+      <c r="C368">
+        <v>3</v>
+      </c>
+      <c r="D368">
+        <v>3</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>1</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11">
+      <c r="A369" t="s">
+        <v>32</v>
+      </c>
+      <c r="C369">
+        <v>3</v>
+      </c>
+      <c r="D369">
+        <v>3</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>1</v>
+      </c>
+      <c r="H369">
+        <v>0</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K371"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD73A9E-B61B-4574-BCA7-877DD45FA246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$371</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$392</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="61">
   <si>
     <t>Boneco</t>
   </si>
@@ -221,8 +216,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,27 +520,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K369"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G370" sqref="G370"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K394" sqref="K394"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -580,7 +575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -612,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -644,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -676,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -708,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -740,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -772,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -804,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -836,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -868,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -900,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -932,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -964,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -996,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1028,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1156,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1284,7 +1279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1348,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1380,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1412,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1444,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1476,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1540,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1572,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1604,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1636,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1668,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1700,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1732,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1764,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1796,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1828,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1860,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1892,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1924,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1956,7 +1951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1988,7 +1983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2020,7 +2015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2052,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2084,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2116,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2180,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2212,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -2244,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2276,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -2308,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2340,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2372,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2436,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -2468,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -2500,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -2532,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -2564,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2596,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -2628,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -2660,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -2692,7 +2687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -2724,7 +2719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2756,7 +2751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2788,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2820,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2852,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2884,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -2916,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2948,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -2980,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3012,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -3044,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -3076,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -3108,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -3140,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3172,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -3204,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3236,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -3268,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -3300,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -3332,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3364,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -3396,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -3428,7 +3423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -3460,7 +3455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -3492,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -3524,7 +3519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -3556,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -3588,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3620,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -3652,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -3684,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -3748,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>45</v>
       </c>
@@ -3780,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -3812,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -3844,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -3876,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -3908,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3940,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3972,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -4004,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -4036,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4068,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -4100,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -4132,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -4164,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -4196,7 +4191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -4228,7 +4223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -4260,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4292,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -4324,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -4356,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -4388,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -4420,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -4452,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -4484,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>46</v>
       </c>
@@ -4516,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -4548,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -4580,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -4612,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -4644,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -4676,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -4708,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4740,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4772,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -4804,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -4836,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -4868,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>34</v>
       </c>
@@ -4900,7 +4895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -4932,7 +4927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -4964,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -4996,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -5028,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -5060,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -5092,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -5124,7 +5119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -5156,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -5188,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -5220,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -5252,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -5284,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -5316,7 +5311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -5348,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -5380,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>41</v>
       </c>
@@ -5412,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -5444,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -5476,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -5508,7 +5503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -5540,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -5572,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>35</v>
       </c>
@@ -5604,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -5636,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -5668,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -5700,7 +5695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -5732,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -5764,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -5796,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -5828,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -5860,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -5892,7 +5887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -5924,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>47</v>
       </c>
@@ -5956,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -5988,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -6020,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -6052,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>29</v>
       </c>
@@ -6084,7 +6079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>30</v>
       </c>
@@ -6116,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -6148,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -6180,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -6212,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -6244,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -6276,7 +6271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -6308,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -6340,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -6372,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -6404,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -6436,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>25</v>
       </c>
@@ -6468,7 +6463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>30</v>
       </c>
@@ -6500,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -6532,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -6564,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -6596,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>44</v>
       </c>
@@ -6628,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -6660,7 +6655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -6692,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -6724,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>36</v>
       </c>
@@ -6756,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -6788,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -6820,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -6852,7 +6847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>48</v>
       </c>
@@ -6884,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -6916,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -6948,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -6980,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>35</v>
       </c>
@@ -7012,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -7044,7 +7039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -7076,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>3</v>
       </c>
@@ -7108,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>41</v>
       </c>
@@ -7140,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -7172,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -7204,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -7236,7 +7231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -7268,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>35</v>
       </c>
@@ -7300,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -7332,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>37</v>
       </c>
@@ -7364,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -7396,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -7428,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>33</v>
       </c>
@@ -7460,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -7492,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -7524,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>50</v>
       </c>
@@ -7556,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -7588,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1</v>
       </c>
@@ -7620,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>38</v>
       </c>
@@ -7652,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>3</v>
       </c>
@@ -7684,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -7716,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>51</v>
       </c>
@@ -7748,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -7780,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -7812,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -7844,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>30</v>
       </c>
@@ -7876,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -7908,7 +7903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>26</v>
       </c>
@@ -7940,7 +7935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>32</v>
       </c>
@@ -7972,7 +7967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>52</v>
       </c>
@@ -8004,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -8036,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -8068,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -8100,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -8132,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -8164,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>30</v>
       </c>
@@ -8196,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -8228,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -8260,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -8292,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -8324,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -8356,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -8388,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -8420,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -8452,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>43</v>
       </c>
@@ -8484,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>2</v>
       </c>
@@ -8516,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>51</v>
       </c>
@@ -8548,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -8580,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>50</v>
       </c>
@@ -8612,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>32</v>
       </c>
@@ -8644,7 +8639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>53</v>
       </c>
@@ -8676,7 +8671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>54</v>
       </c>
@@ -8708,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>55</v>
       </c>
@@ -8740,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -8772,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -8804,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>41</v>
       </c>
@@ -8836,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>15</v>
       </c>
@@ -8868,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -8900,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>30</v>
       </c>
@@ -8932,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>49</v>
       </c>
@@ -8964,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -8996,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>44</v>
       </c>
@@ -9028,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>51</v>
       </c>
@@ -9060,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>33</v>
       </c>
@@ -9092,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -9124,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>2</v>
       </c>
@@ -9156,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>37</v>
       </c>
@@ -9188,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>3</v>
       </c>
@@ -9220,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -9252,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>10</v>
       </c>
@@ -9284,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>38</v>
       </c>
@@ -9316,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -9348,7 +9343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -9380,7 +9375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>30</v>
       </c>
@@ -9412,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -9444,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>2</v>
       </c>
@@ -9476,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -9508,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -9540,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -9572,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>45</v>
       </c>
@@ -9604,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -9636,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>38</v>
       </c>
@@ -9668,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -9700,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -9732,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -9764,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -9796,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>51</v>
       </c>
@@ -9828,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>39</v>
       </c>
@@ -9860,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -9892,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>35</v>
       </c>
@@ -9924,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>52</v>
       </c>
@@ -9956,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>50</v>
       </c>
@@ -9988,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>3</v>
       </c>
@@ -10020,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>26</v>
       </c>
@@ -10052,7 +10047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>25</v>
       </c>
@@ -10084,7 +10079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -10116,7 +10111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>2</v>
       </c>
@@ -10148,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -10180,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -10212,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>38</v>
       </c>
@@ -10244,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -10276,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>35</v>
       </c>
@@ -10308,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>14</v>
       </c>
@@ -10340,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>51</v>
       </c>
@@ -10372,7 +10367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>56</v>
       </c>
@@ -10404,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -10436,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1</v>
       </c>
@@ -10468,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>10</v>
       </c>
@@ -10500,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>9</v>
       </c>
@@ -10532,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>45</v>
       </c>
@@ -10564,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>3</v>
       </c>
@@ -10596,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>30</v>
       </c>
@@ -10628,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>12</v>
       </c>
@@ -10660,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -10692,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>33</v>
       </c>
@@ -10724,7 +10719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -10756,7 +10751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>57</v>
       </c>
@@ -10788,7 +10783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>26</v>
       </c>
@@ -10820,7 +10815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>32</v>
       </c>
@@ -10852,7 +10847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -10884,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>10</v>
       </c>
@@ -10916,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>5</v>
       </c>
@@ -10948,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>33</v>
       </c>
@@ -10980,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -11012,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -11044,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1</v>
       </c>
@@ -11076,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -11108,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>44</v>
       </c>
@@ -11140,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -11172,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -11204,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>50</v>
       </c>
@@ -11236,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>39</v>
       </c>
@@ -11268,7 +11263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -11300,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>38</v>
       </c>
@@ -11332,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>3</v>
       </c>
@@ -11364,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -11396,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>58</v>
       </c>
@@ -11428,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -11460,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -11492,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>26</v>
       </c>
@@ -11524,7 +11519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>32</v>
       </c>
@@ -11556,7 +11551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>57</v>
       </c>
@@ -11588,7 +11583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>59</v>
       </c>
@@ -11620,7 +11615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>0</v>
       </c>
@@ -11652,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>30</v>
       </c>
@@ -11684,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>3</v>
       </c>
@@ -11716,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>36</v>
       </c>
@@ -11748,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>25</v>
       </c>
@@ -11780,7 +11775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>33</v>
       </c>
@@ -11812,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>15</v>
       </c>
@@ -11844,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -11876,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>38</v>
       </c>
@@ -11908,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>8</v>
       </c>
@@ -11940,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>26</v>
       </c>
@@ -11972,7 +11967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>13</v>
       </c>
@@ -12004,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>45</v>
       </c>
@@ -12036,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>60</v>
       </c>
@@ -12068,7 +12063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>51</v>
       </c>
@@ -12100,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -12132,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>57</v>
       </c>
@@ -12164,7 +12159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1</v>
       </c>
@@ -12196,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -12228,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>10</v>
       </c>
@@ -12260,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>2</v>
       </c>
@@ -12292,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -12324,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>32</v>
       </c>
@@ -12356,8 +12351,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>2</v>
+      </c>
+      <c r="E370">
+        <v>3</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>15</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>2</v>
+      </c>
+      <c r="E371">
+        <v>3</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>1</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>33</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+      <c r="E372">
+        <v>3</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>1</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>13</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>2</v>
+      </c>
+      <c r="E373">
+        <v>3</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>1</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>36</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>2</v>
+      </c>
+      <c r="E374">
+        <v>3</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>1</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>25</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+      <c r="E375">
+        <v>3</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>1</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>50</v>
+      </c>
+      <c r="C376">
+        <v>3</v>
+      </c>
+      <c r="D376">
+        <v>3</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>1</v>
+      </c>
+      <c r="H376">
+        <v>1</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>59</v>
+      </c>
+      <c r="C377">
+        <v>3</v>
+      </c>
+      <c r="D377">
+        <v>3</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>4</v>
+      </c>
+      <c r="G377">
+        <v>1</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378">
+        <v>3</v>
+      </c>
+      <c r="D378">
+        <v>3</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>1</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>12</v>
+      </c>
+      <c r="C379">
+        <v>3</v>
+      </c>
+      <c r="D379">
+        <v>3</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>1</v>
+      </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>30</v>
+      </c>
+      <c r="C380">
+        <v>3</v>
+      </c>
+      <c r="D380">
+        <v>3</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>1</v>
+      </c>
+      <c r="H380">
+        <v>1</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>26</v>
+      </c>
+      <c r="C381">
+        <v>3</v>
+      </c>
+      <c r="D381">
+        <v>3</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>1</v>
+      </c>
+      <c r="H381">
+        <v>1</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="C382">
+        <v>2</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>4</v>
+      </c>
+      <c r="F382">
+        <v>3</v>
+      </c>
+      <c r="G382">
+        <v>1</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>38</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>4</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>1</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>2</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>4</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>1</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>4</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+      <c r="G385">
+        <v>1</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>4</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+      <c r="G386">
+        <v>1</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>1</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>57</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <v>4</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>35</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+      <c r="D388">
+        <v>2</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+      <c r="G388">
+        <v>1</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>10</v>
+      </c>
+      <c r="C389">
+        <v>2</v>
+      </c>
+      <c r="D389">
+        <v>2</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>2</v>
+      </c>
+      <c r="G389">
+        <v>1</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>14</v>
+      </c>
+      <c r="C390">
+        <v>2</v>
+      </c>
+      <c r="D390">
+        <v>2</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>1</v>
+      </c>
+      <c r="G390">
+        <v>1</v>
+      </c>
+      <c r="H390">
+        <v>0</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>49</v>
+      </c>
+      <c r="C391">
+        <v>2</v>
+      </c>
+      <c r="D391">
+        <v>2</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>1</v>
+      </c>
+      <c r="H391">
+        <v>0</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>39</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+      <c r="D392">
+        <v>2</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>1</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>32</v>
+      </c>
+      <c r="C393">
+        <v>2</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>1</v>
+      </c>
+      <c r="G393">
+        <v>1</v>
+      </c>
+      <c r="H393">
+        <v>0</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K371"/>
+  <autoFilter ref="A1:K392" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD73A9E-B61B-4574-BCA7-877DD45FA246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783AABED-0BDD-45B4-B990-090F8D7BD180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,30 @@
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$392</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$393</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="60">
   <si>
     <t>Boneco</t>
   </si>
@@ -205,9 +216,6 @@
   </si>
   <si>
     <t>Guilherme</t>
-  </si>
-  <si>
-    <t>Leadrinho</t>
   </si>
   <si>
     <t>Carlin</t>
@@ -531,8 +539,8 @@
   <dimension ref="A1:K393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K394" sqref="K394"/>
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A393" sqref="A393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11585,7 +11593,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C346">
         <v>6</v>
@@ -12033,7 +12041,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C360">
         <v>2</v>
@@ -12577,7 +12585,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C377">
         <v>3</v>
@@ -13120,7 +13128,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K392" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783AABED-0BDD-45B4-B990-090F8D7BD180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9964B73-06BE-4171-9716-DBA388A5D1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,8 +539,8 @@
   <dimension ref="A1:K393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A393" sqref="A393"/>
+      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D391" sqref="D391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12943,7 +12943,7 @@
         <v>2</v>
       </c>
       <c r="D388">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E388">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>2</v>
       </c>
       <c r="D389">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -13007,7 +13007,7 @@
         <v>2</v>
       </c>
       <c r="D390">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E390">
         <v>0</v>
@@ -13039,7 +13039,7 @@
         <v>2</v>
       </c>
       <c r="D391">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>2</v>
       </c>
       <c r="D392">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -13103,7 +13103,7 @@
         <v>2</v>
       </c>
       <c r="D393">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E393">
         <v>0</v>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9964B73-06BE-4171-9716-DBA388A5D1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC7BE09-037E-4616-B682-2160B260C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="60">
   <si>
     <t>Boneco</t>
   </si>
@@ -536,11 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K393"/>
+  <dimension ref="A1:K415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D391" sqref="D391"/>
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A416" sqref="A416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13127,6 +13127,710 @@
         <v>2</v>
       </c>
     </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>3</v>
+      </c>
+      <c r="E394">
+        <v>2</v>
+      </c>
+      <c r="F394">
+        <v>3</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+      <c r="H394">
+        <v>0</v>
+      </c>
+      <c r="I394">
+        <v>1</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>11</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>3</v>
+      </c>
+      <c r="E395">
+        <v>2</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+      <c r="G395">
+        <v>1</v>
+      </c>
+      <c r="H395">
+        <v>0</v>
+      </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>15</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>3</v>
+      </c>
+      <c r="E396">
+        <v>2</v>
+      </c>
+      <c r="F396">
+        <v>3</v>
+      </c>
+      <c r="G396">
+        <v>1</v>
+      </c>
+      <c r="H396">
+        <v>0</v>
+      </c>
+      <c r="I396">
+        <v>1</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>3</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>3</v>
+      </c>
+      <c r="E397">
+        <v>2</v>
+      </c>
+      <c r="F397">
+        <v>1</v>
+      </c>
+      <c r="G397">
+        <v>1</v>
+      </c>
+      <c r="H397">
+        <v>0</v>
+      </c>
+      <c r="I397">
+        <v>1</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>13</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>3</v>
+      </c>
+      <c r="E398">
+        <v>2</v>
+      </c>
+      <c r="F398">
+        <v>1</v>
+      </c>
+      <c r="G398">
+        <v>1</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
+      <c r="I398">
+        <v>1</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>37</v>
+      </c>
+      <c r="C399">
+        <v>3</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+      <c r="E399">
+        <v>2</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+      <c r="G399">
+        <v>1</v>
+      </c>
+      <c r="H399">
+        <v>1</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>12</v>
+      </c>
+      <c r="C400">
+        <v>3</v>
+      </c>
+      <c r="D400">
+        <v>2</v>
+      </c>
+      <c r="E400">
+        <v>2</v>
+      </c>
+      <c r="F400">
+        <v>2</v>
+      </c>
+      <c r="G400">
+        <v>1</v>
+      </c>
+      <c r="H400">
+        <v>1</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401">
+        <v>3</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+      <c r="E401">
+        <v>2</v>
+      </c>
+      <c r="F401">
+        <v>2</v>
+      </c>
+      <c r="G401">
+        <v>1</v>
+      </c>
+      <c r="H401">
+        <v>1</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>8</v>
+      </c>
+      <c r="C402">
+        <v>3</v>
+      </c>
+      <c r="D402">
+        <v>2</v>
+      </c>
+      <c r="E402">
+        <v>2</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+      <c r="G402">
+        <v>1</v>
+      </c>
+      <c r="H402">
+        <v>1</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403">
+        <v>3</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403">
+        <v>2</v>
+      </c>
+      <c r="F403">
+        <v>2</v>
+      </c>
+      <c r="G403">
+        <v>1</v>
+      </c>
+      <c r="H403">
+        <v>1</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>7</v>
+      </c>
+      <c r="C404">
+        <v>3</v>
+      </c>
+      <c r="D404">
+        <v>2</v>
+      </c>
+      <c r="E404">
+        <v>2</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+      <c r="G404">
+        <v>1</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>10</v>
+      </c>
+      <c r="C405">
+        <v>3</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
+      <c r="E405">
+        <v>2</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+      <c r="G405">
+        <v>1</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>2</v>
+      </c>
+      <c r="C406">
+        <v>3</v>
+      </c>
+      <c r="D406">
+        <v>2</v>
+      </c>
+      <c r="E406">
+        <v>2</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406">
+        <v>1</v>
+      </c>
+      <c r="H406">
+        <v>0</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>30</v>
+      </c>
+      <c r="C407">
+        <v>3</v>
+      </c>
+      <c r="D407">
+        <v>2</v>
+      </c>
+      <c r="E407">
+        <v>2</v>
+      </c>
+      <c r="F407">
+        <v>2</v>
+      </c>
+      <c r="G407">
+        <v>1</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <v>3</v>
+      </c>
+      <c r="D408">
+        <v>2</v>
+      </c>
+      <c r="E408">
+        <v>2</v>
+      </c>
+      <c r="F408">
+        <v>1</v>
+      </c>
+      <c r="G408">
+        <v>1</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>36</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>3</v>
+      </c>
+      <c r="F409">
+        <v>2</v>
+      </c>
+      <c r="G409">
+        <v>1</v>
+      </c>
+      <c r="H409">
+        <v>0</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>33</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>3</v>
+      </c>
+      <c r="F410">
+        <v>3</v>
+      </c>
+      <c r="G410">
+        <v>1</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>14</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>3</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+      <c r="G411">
+        <v>1</v>
+      </c>
+      <c r="H411">
+        <v>0</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>38</v>
+      </c>
+      <c r="C412">
+        <v>2</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>3</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412">
+        <v>1</v>
+      </c>
+      <c r="H412">
+        <v>0</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>9</v>
+      </c>
+      <c r="C413">
+        <v>2</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>3</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+      <c r="G413">
+        <v>1</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>26</v>
+      </c>
+      <c r="C414">
+        <v>4</v>
+      </c>
+      <c r="D414">
+        <v>4</v>
+      </c>
+      <c r="E414">
+        <v>5</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414">
+        <v>1</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
+      </c>
+      <c r="I414">
+        <v>1</v>
+      </c>
+      <c r="J414">
+        <v>1</v>
+      </c>
+      <c r="K414">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>57</v>
+      </c>
+      <c r="C415">
+        <v>5</v>
+      </c>
+      <c r="D415">
+        <v>4</v>
+      </c>
+      <c r="E415">
+        <v>4</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415">
+        <v>1</v>
+      </c>
+      <c r="H415">
+        <v>1</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC7BE09-037E-4616-B682-2160B260C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A0DB0C-3764-448B-ACFA-14432B91D318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="62">
   <si>
     <t>Boneco</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>Carlin</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Matheus jogador</t>
   </si>
 </sst>
 </file>
@@ -536,19 +542,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K415"/>
+  <dimension ref="A1:K439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A416" sqref="A416"/>
+      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A439" sqref="A439"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -583,7 +589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -743,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -903,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -935,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2151,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -3751,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>45</v>
       </c>
@@ -3783,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -3847,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -4135,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -4199,7 +4205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4295,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -4327,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -4359,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -4423,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -4455,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -4487,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>46</v>
       </c>
@@ -4519,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -4583,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -4615,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -4647,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -4679,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -4711,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4743,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4775,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -4807,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -4839,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -4871,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>34</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -4935,7 +4941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -4967,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -5031,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -5063,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -5127,7 +5133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -5159,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -5191,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -5223,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -5255,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -5287,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -5319,7 +5325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>41</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -5447,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -5479,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -5511,7 +5517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -5543,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -5575,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>35</v>
       </c>
@@ -5607,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -5639,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -5703,7 +5709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -5735,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -5767,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -5799,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -5831,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -5863,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -5895,7 +5901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -5927,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>47</v>
       </c>
@@ -5959,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -5991,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -6023,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>29</v>
       </c>
@@ -6087,7 +6093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>30</v>
       </c>
@@ -6119,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -6151,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -6183,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -6215,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -6247,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -6311,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -6343,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -6407,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -6439,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>25</v>
       </c>
@@ -6471,7 +6477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>30</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -6535,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -6567,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -6599,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>44</v>
       </c>
@@ -6631,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -6663,7 +6669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -6695,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>36</v>
       </c>
@@ -6759,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -6791,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -6823,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -6855,7 +6861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>48</v>
       </c>
@@ -6887,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -6919,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -6983,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>35</v>
       </c>
@@ -7015,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -7079,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>3</v>
       </c>
@@ -7111,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>41</v>
       </c>
@@ -7143,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -7175,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -7207,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -7239,7 +7245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>35</v>
       </c>
@@ -7303,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -7335,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>37</v>
       </c>
@@ -7367,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -7399,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -7431,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>33</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -7495,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -7527,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>50</v>
       </c>
@@ -7559,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -7591,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>1</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>38</v>
       </c>
@@ -7655,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>3</v>
       </c>
@@ -7687,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -7719,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>51</v>
       </c>
@@ -7751,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -7783,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -7815,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -7847,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>30</v>
       </c>
@@ -7879,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -7911,7 +7917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>26</v>
       </c>
@@ -7943,7 +7949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>32</v>
       </c>
@@ -7975,7 +7981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>52</v>
       </c>
@@ -8007,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -8039,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -8071,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -8103,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -8135,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -8167,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>30</v>
       </c>
@@ -8199,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -8231,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -8263,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -8295,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -8327,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -8359,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -8455,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>43</v>
       </c>
@@ -8487,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>2</v>
       </c>
@@ -8519,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>51</v>
       </c>
@@ -8551,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -8583,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>50</v>
       </c>
@@ -8615,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>32</v>
       </c>
@@ -8647,7 +8653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>53</v>
       </c>
@@ -8679,7 +8685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>54</v>
       </c>
@@ -8711,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>55</v>
       </c>
@@ -8743,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -8775,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -8807,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>41</v>
       </c>
@@ -8839,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>15</v>
       </c>
@@ -8871,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -8903,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>30</v>
       </c>
@@ -8935,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>49</v>
       </c>
@@ -8967,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -8999,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>44</v>
       </c>
@@ -9031,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>51</v>
       </c>
@@ -9063,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>33</v>
       </c>
@@ -9095,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -9127,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>2</v>
       </c>
@@ -9159,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>37</v>
       </c>
@@ -9191,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>3</v>
       </c>
@@ -9223,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -9255,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>10</v>
       </c>
@@ -9287,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>38</v>
       </c>
@@ -9319,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -9351,7 +9357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -9383,7 +9389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>30</v>
       </c>
@@ -9415,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -9447,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>2</v>
       </c>
@@ -9479,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -9511,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -9543,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -9575,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>45</v>
       </c>
@@ -9607,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -9639,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>38</v>
       </c>
@@ -9671,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -9703,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -9735,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -9767,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -9799,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>51</v>
       </c>
@@ -9831,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>39</v>
       </c>
@@ -9863,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -9895,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>35</v>
       </c>
@@ -9927,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>52</v>
       </c>
@@ -9959,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>50</v>
       </c>
@@ -9991,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>3</v>
       </c>
@@ -10023,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>26</v>
       </c>
@@ -10055,7 +10061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>25</v>
       </c>
@@ -10087,7 +10093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -10119,7 +10125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>2</v>
       </c>
@@ -10151,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -10183,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -10215,7 +10221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>38</v>
       </c>
@@ -10247,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -10279,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>35</v>
       </c>
@@ -10311,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>14</v>
       </c>
@@ -10343,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>51</v>
       </c>
@@ -10375,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>56</v>
       </c>
@@ -10407,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -10439,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1</v>
       </c>
@@ -10471,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>10</v>
       </c>
@@ -10503,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>9</v>
       </c>
@@ -10535,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>45</v>
       </c>
@@ -10567,7 +10573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>3</v>
       </c>
@@ -10599,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>30</v>
       </c>
@@ -10631,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>12</v>
       </c>
@@ -10663,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -10695,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>33</v>
       </c>
@@ -10727,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -10759,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>57</v>
       </c>
@@ -10791,7 +10797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>26</v>
       </c>
@@ -10823,7 +10829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>32</v>
       </c>
@@ -10855,7 +10861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -10887,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>10</v>
       </c>
@@ -10919,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>5</v>
       </c>
@@ -10951,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>33</v>
       </c>
@@ -10983,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -11015,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -11047,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1</v>
       </c>
@@ -11079,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -11111,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>44</v>
       </c>
@@ -11143,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -11175,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -11207,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>50</v>
       </c>
@@ -11239,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>39</v>
       </c>
@@ -11271,7 +11277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -11303,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>38</v>
       </c>
@@ -11335,7 +11341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>3</v>
       </c>
@@ -11367,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -11399,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>58</v>
       </c>
@@ -11431,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -11463,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -11495,7 +11501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>26</v>
       </c>
@@ -11527,7 +11533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>32</v>
       </c>
@@ -11559,7 +11565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>57</v>
       </c>
@@ -11591,7 +11597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -11623,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>0</v>
       </c>
@@ -11655,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>30</v>
       </c>
@@ -11687,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>3</v>
       </c>
@@ -11719,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>36</v>
       </c>
@@ -11751,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>25</v>
       </c>
@@ -11783,7 +11789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>33</v>
       </c>
@@ -11815,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>15</v>
       </c>
@@ -11847,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -11879,7 +11885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>38</v>
       </c>
@@ -11911,7 +11917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>8</v>
       </c>
@@ -11943,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>26</v>
       </c>
@@ -11975,7 +11981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>13</v>
       </c>
@@ -12007,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>45</v>
       </c>
@@ -12039,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>59</v>
       </c>
@@ -12071,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>51</v>
       </c>
@@ -12103,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -12135,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>57</v>
       </c>
@@ -12167,7 +12173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1</v>
       </c>
@@ -12199,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -12231,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>10</v>
       </c>
@@ -12263,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>2</v>
       </c>
@@ -12295,7 +12301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -12327,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>32</v>
       </c>
@@ -12359,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -12391,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>15</v>
       </c>
@@ -12423,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>33</v>
       </c>
@@ -12455,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>13</v>
       </c>
@@ -12487,7 +12493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>36</v>
       </c>
@@ -12519,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>25</v>
       </c>
@@ -12551,7 +12557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>50</v>
       </c>
@@ -12583,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -12615,7 +12621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -12647,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>12</v>
       </c>
@@ -12679,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>30</v>
       </c>
@@ -12711,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>26</v>
       </c>
@@ -12743,7 +12749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>3</v>
       </c>
@@ -12775,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>38</v>
       </c>
@@ -12807,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>2</v>
       </c>
@@ -12839,7 +12845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>6</v>
       </c>
@@ -12871,7 +12877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>0</v>
       </c>
@@ -12903,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>57</v>
       </c>
@@ -12935,7 +12941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>35</v>
       </c>
@@ -12967,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>10</v>
       </c>
@@ -12999,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>14</v>
       </c>
@@ -13031,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>49</v>
       </c>
@@ -13063,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>39</v>
       </c>
@@ -13095,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>32</v>
       </c>
@@ -13127,7 +13133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>6</v>
       </c>
@@ -13159,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>11</v>
       </c>
@@ -13191,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>15</v>
       </c>
@@ -13223,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>3</v>
       </c>
@@ -13255,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>13</v>
       </c>
@@ -13287,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>37</v>
       </c>
@@ -13319,7 +13325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>12</v>
       </c>
@@ -13351,7 +13357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -13383,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -13415,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>5</v>
       </c>
@@ -13447,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -13479,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>10</v>
       </c>
@@ -13511,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>2</v>
       </c>
@@ -13543,7 +13549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>30</v>
       </c>
@@ -13575,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>0</v>
       </c>
@@ -13607,7 +13613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>36</v>
       </c>
@@ -13639,7 +13645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>33</v>
       </c>
@@ -13671,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>14</v>
       </c>
@@ -13703,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>38</v>
       </c>
@@ -13735,7 +13741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>9</v>
       </c>
@@ -13767,7 +13773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>26</v>
       </c>
@@ -13799,7 +13805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>57</v>
       </c>
@@ -13829,6 +13835,774 @@
       </c>
       <c r="K415">
         <v>12</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>35</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416">
+        <v>2</v>
+      </c>
+      <c r="E416">
+        <v>3</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>1</v>
+      </c>
+      <c r="H416">
+        <v>0</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>8</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417">
+        <v>2</v>
+      </c>
+      <c r="E417">
+        <v>3</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+      <c r="G417">
+        <v>1</v>
+      </c>
+      <c r="H417">
+        <v>0</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>60</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418">
+        <v>2</v>
+      </c>
+      <c r="E418">
+        <v>3</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>1</v>
+      </c>
+      <c r="H418">
+        <v>0</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>13</v>
+      </c>
+      <c r="C419">
+        <v>2</v>
+      </c>
+      <c r="D419">
+        <v>2</v>
+      </c>
+      <c r="E419">
+        <v>3</v>
+      </c>
+      <c r="F419">
+        <v>2</v>
+      </c>
+      <c r="G419">
+        <v>1</v>
+      </c>
+      <c r="H419">
+        <v>0</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>6</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420">
+        <v>2</v>
+      </c>
+      <c r="E420">
+        <v>3</v>
+      </c>
+      <c r="F420">
+        <v>3</v>
+      </c>
+      <c r="G420">
+        <v>1</v>
+      </c>
+      <c r="H420">
+        <v>0</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>25</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421">
+        <v>2</v>
+      </c>
+      <c r="E421">
+        <v>3</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+      <c r="G421">
+        <v>1</v>
+      </c>
+      <c r="H421">
+        <v>0</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>30</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+      <c r="E422">
+        <v>3</v>
+      </c>
+      <c r="F422">
+        <v>2</v>
+      </c>
+      <c r="G422">
+        <v>1</v>
+      </c>
+      <c r="H422">
+        <v>0</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+      <c r="K422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>3</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>3</v>
+      </c>
+      <c r="F423">
+        <v>1</v>
+      </c>
+      <c r="G423">
+        <v>1</v>
+      </c>
+      <c r="H423">
+        <v>0</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>2</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>3</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424">
+        <v>1</v>
+      </c>
+      <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>39</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>3</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>1</v>
+      </c>
+      <c r="H425">
+        <v>0</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>9</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426">
+        <v>3</v>
+      </c>
+      <c r="F426">
+        <v>1</v>
+      </c>
+      <c r="G426">
+        <v>1</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>26</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427">
+        <v>3</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>1</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>11</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+      <c r="E428">
+        <v>3</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <v>1</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+      <c r="I428">
+        <v>1</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429">
+        <v>2</v>
+      </c>
+      <c r="E429">
+        <v>3</v>
+      </c>
+      <c r="F429">
+        <v>1</v>
+      </c>
+      <c r="G429">
+        <v>1</v>
+      </c>
+      <c r="H429">
+        <v>0</v>
+      </c>
+      <c r="I429">
+        <v>1</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>38</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+      <c r="E430">
+        <v>3</v>
+      </c>
+      <c r="F430">
+        <v>1</v>
+      </c>
+      <c r="G430">
+        <v>1</v>
+      </c>
+      <c r="H430">
+        <v>0</v>
+      </c>
+      <c r="I430">
+        <v>1</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>61</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>2</v>
+      </c>
+      <c r="E431">
+        <v>3</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>1</v>
+      </c>
+      <c r="H431">
+        <v>0</v>
+      </c>
+      <c r="I431">
+        <v>1</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>33</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>2</v>
+      </c>
+      <c r="E432">
+        <v>3</v>
+      </c>
+      <c r="F432">
+        <v>1</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>0</v>
+      </c>
+      <c r="I432">
+        <v>1</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>29</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>2</v>
+      </c>
+      <c r="E433">
+        <v>3</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+      <c r="G433">
+        <v>1</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+      <c r="I433">
+        <v>1</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>51</v>
+      </c>
+      <c r="C434">
+        <v>4</v>
+      </c>
+      <c r="D434">
+        <v>3</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>3</v>
+      </c>
+      <c r="G434">
+        <v>1</v>
+      </c>
+      <c r="H434">
+        <v>1</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>1</v>
+      </c>
+      <c r="K434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>45</v>
+      </c>
+      <c r="C435">
+        <v>4</v>
+      </c>
+      <c r="D435">
+        <v>3</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+      <c r="G435">
+        <v>1</v>
+      </c>
+      <c r="H435">
+        <v>1</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436">
+        <v>4</v>
+      </c>
+      <c r="D436">
+        <v>3</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>2</v>
+      </c>
+      <c r="G436">
+        <v>1</v>
+      </c>
+      <c r="H436">
+        <v>1</v>
+      </c>
+      <c r="I436">
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>10</v>
+      </c>
+      <c r="C437">
+        <v>4</v>
+      </c>
+      <c r="D437">
+        <v>3</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>2</v>
+      </c>
+      <c r="G437">
+        <v>1</v>
+      </c>
+      <c r="H437">
+        <v>1</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>4</v>
+      </c>
+      <c r="D438">
+        <v>3</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>2</v>
+      </c>
+      <c r="G438">
+        <v>1</v>
+      </c>
+      <c r="H438">
+        <v>1</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>57</v>
+      </c>
+      <c r="C439">
+        <v>4</v>
+      </c>
+      <c r="D439">
+        <v>3</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+      <c r="G439">
+        <v>1</v>
+      </c>
+      <c r="H439">
+        <v>1</v>
+      </c>
+      <c r="I439">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A0DB0C-3764-448B-ACFA-14432B91D318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{69A0DB0C-3764-448B-ACFA-14432B91D318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1844161-D2F7-4EC5-AEAA-BAD9D78E178D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="62">
   <si>
     <t>Boneco</t>
   </si>
@@ -542,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K439"/>
+  <dimension ref="A1:K461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A439" sqref="A439"/>
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A462" sqref="A462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14605,6 +14605,710 @@
         <v>5</v>
       </c>
     </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>7</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+      <c r="D440">
+        <v>2</v>
+      </c>
+      <c r="E440">
+        <v>2</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>1</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>41</v>
+      </c>
+      <c r="C441">
+        <v>2</v>
+      </c>
+      <c r="D441">
+        <v>2</v>
+      </c>
+      <c r="E441">
+        <v>2</v>
+      </c>
+      <c r="F441">
+        <v>2</v>
+      </c>
+      <c r="G441">
+        <v>1</v>
+      </c>
+      <c r="H441">
+        <v>0</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>33</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+      <c r="D442">
+        <v>2</v>
+      </c>
+      <c r="E442">
+        <v>2</v>
+      </c>
+      <c r="F442">
+        <v>1</v>
+      </c>
+      <c r="G442">
+        <v>1</v>
+      </c>
+      <c r="H442">
+        <v>0</v>
+      </c>
+      <c r="I442">
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>36</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+      <c r="D443">
+        <v>2</v>
+      </c>
+      <c r="E443">
+        <v>2</v>
+      </c>
+      <c r="F443">
+        <v>2</v>
+      </c>
+      <c r="G443">
+        <v>1</v>
+      </c>
+      <c r="H443">
+        <v>0</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>1</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>37</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+      <c r="D444">
+        <v>2</v>
+      </c>
+      <c r="E444">
+        <v>2</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+      <c r="H444">
+        <v>0</v>
+      </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>10</v>
+      </c>
+      <c r="C445">
+        <v>2</v>
+      </c>
+      <c r="D445">
+        <v>2</v>
+      </c>
+      <c r="E445">
+        <v>2</v>
+      </c>
+      <c r="F445">
+        <v>1</v>
+      </c>
+      <c r="G445">
+        <v>1</v>
+      </c>
+      <c r="H445">
+        <v>0</v>
+      </c>
+      <c r="I445">
+        <v>1</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>14</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+      <c r="D446">
+        <v>2</v>
+      </c>
+      <c r="E446">
+        <v>2</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446">
+        <v>1</v>
+      </c>
+      <c r="H446">
+        <v>0</v>
+      </c>
+      <c r="I446">
+        <v>1</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>30</v>
+      </c>
+      <c r="C447">
+        <v>2</v>
+      </c>
+      <c r="D447">
+        <v>2</v>
+      </c>
+      <c r="E447">
+        <v>2</v>
+      </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>0</v>
+      </c>
+      <c r="I447">
+        <v>1</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>3</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+      <c r="D448">
+        <v>2</v>
+      </c>
+      <c r="E448">
+        <v>2</v>
+      </c>
+      <c r="F448">
+        <v>2</v>
+      </c>
+      <c r="G448">
+        <v>1</v>
+      </c>
+      <c r="H448">
+        <v>0</v>
+      </c>
+      <c r="I448">
+        <v>1</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>9</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+      <c r="D449">
+        <v>2</v>
+      </c>
+      <c r="E449">
+        <v>2</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+      <c r="G449">
+        <v>1</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+      <c r="I449">
+        <v>1</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>38</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+      <c r="D450">
+        <v>2</v>
+      </c>
+      <c r="E450">
+        <v>2</v>
+      </c>
+      <c r="F450">
+        <v>2</v>
+      </c>
+      <c r="G450">
+        <v>1</v>
+      </c>
+      <c r="H450">
+        <v>1</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>11</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+      <c r="D451">
+        <v>2</v>
+      </c>
+      <c r="E451">
+        <v>2</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+      <c r="G451">
+        <v>1</v>
+      </c>
+      <c r="H451">
+        <v>1</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>2</v>
+      </c>
+      <c r="D452">
+        <v>2</v>
+      </c>
+      <c r="E452">
+        <v>2</v>
+      </c>
+      <c r="F452">
+        <v>3</v>
+      </c>
+      <c r="G452">
+        <v>1</v>
+      </c>
+      <c r="H452">
+        <v>1</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>8</v>
+      </c>
+      <c r="C453">
+        <v>2</v>
+      </c>
+      <c r="D453">
+        <v>2</v>
+      </c>
+      <c r="E453">
+        <v>2</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
+      <c r="H453">
+        <v>1</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>12</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+      <c r="D454">
+        <v>2</v>
+      </c>
+      <c r="E454">
+        <v>2</v>
+      </c>
+      <c r="F454">
+        <v>1</v>
+      </c>
+      <c r="G454">
+        <v>1</v>
+      </c>
+      <c r="H454">
+        <v>1</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>4</v>
+      </c>
+      <c r="C455">
+        <v>2</v>
+      </c>
+      <c r="D455">
+        <v>2</v>
+      </c>
+      <c r="E455">
+        <v>2</v>
+      </c>
+      <c r="F455">
+        <v>1</v>
+      </c>
+      <c r="G455">
+        <v>1</v>
+      </c>
+      <c r="H455">
+        <v>0</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456">
+        <v>2</v>
+      </c>
+      <c r="D456">
+        <v>2</v>
+      </c>
+      <c r="E456">
+        <v>2</v>
+      </c>
+      <c r="F456">
+        <v>0</v>
+      </c>
+      <c r="G456">
+        <v>1</v>
+      </c>
+      <c r="H456">
+        <v>0</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>13</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+      <c r="D457">
+        <v>2</v>
+      </c>
+      <c r="E457">
+        <v>2</v>
+      </c>
+      <c r="F457">
+        <v>2</v>
+      </c>
+      <c r="G457">
+        <v>1</v>
+      </c>
+      <c r="H457">
+        <v>0</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>2</v>
+      </c>
+      <c r="C458">
+        <v>2</v>
+      </c>
+      <c r="D458">
+        <v>2</v>
+      </c>
+      <c r="E458">
+        <v>2</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+      <c r="G458">
+        <v>1</v>
+      </c>
+      <c r="H458">
+        <v>0</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>5</v>
+      </c>
+      <c r="C459">
+        <v>2</v>
+      </c>
+      <c r="D459">
+        <v>2</v>
+      </c>
+      <c r="E459">
+        <v>2</v>
+      </c>
+      <c r="F459">
+        <v>2</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+      <c r="H459">
+        <v>0</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>26</v>
+      </c>
+      <c r="C460">
+        <v>4</v>
+      </c>
+      <c r="D460">
+        <v>4</v>
+      </c>
+      <c r="E460">
+        <v>3</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>1</v>
+      </c>
+      <c r="H460">
+        <v>1</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>32</v>
+      </c>
+      <c r="C461">
+        <v>3</v>
+      </c>
+      <c r="D461">
+        <v>4</v>
+      </c>
+      <c r="E461">
+        <v>4</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>1</v>
+      </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+      <c r="I461">
+        <v>1</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{69A0DB0C-3764-448B-ACFA-14432B91D318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1844161-D2F7-4EC5-AEAA-BAD9D78E178D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D46A9-43BC-49B6-BCA8-F8C0E6A5792E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="62">
   <si>
     <t>Boneco</t>
   </si>
@@ -542,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K461"/>
+  <dimension ref="A1:K483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A462" sqref="A462"/>
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K483" sqref="K483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15309,6 +15309,710 @@
         <v>11</v>
       </c>
     </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>2</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>2</v>
+      </c>
+      <c r="E462">
+        <v>3</v>
+      </c>
+      <c r="F462">
+        <v>1</v>
+      </c>
+      <c r="G462">
+        <v>1</v>
+      </c>
+      <c r="H462">
+        <v>0</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>47</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>2</v>
+      </c>
+      <c r="E463">
+        <v>3</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+      <c r="G463">
+        <v>1</v>
+      </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>9</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>2</v>
+      </c>
+      <c r="E464">
+        <v>3</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+      <c r="G464">
+        <v>1</v>
+      </c>
+      <c r="H464">
+        <v>0</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>4</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>2</v>
+      </c>
+      <c r="E465">
+        <v>3</v>
+      </c>
+      <c r="F465">
+        <v>0</v>
+      </c>
+      <c r="G465">
+        <v>1</v>
+      </c>
+      <c r="H465">
+        <v>0</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>2</v>
+      </c>
+      <c r="E466">
+        <v>3</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+      <c r="G466">
+        <v>1</v>
+      </c>
+      <c r="H466">
+        <v>0</v>
+      </c>
+      <c r="I466">
+        <v>0</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>30</v>
+      </c>
+      <c r="C467">
+        <v>4</v>
+      </c>
+      <c r="D467">
+        <v>2</v>
+      </c>
+      <c r="E467">
+        <v>1</v>
+      </c>
+      <c r="F467">
+        <v>1</v>
+      </c>
+      <c r="G467">
+        <v>1</v>
+      </c>
+      <c r="H467">
+        <v>1</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>14</v>
+      </c>
+      <c r="C468">
+        <v>4</v>
+      </c>
+      <c r="D468">
+        <v>2</v>
+      </c>
+      <c r="E468">
+        <v>1</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+      <c r="G468">
+        <v>1</v>
+      </c>
+      <c r="H468">
+        <v>1</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>4</v>
+      </c>
+      <c r="D469">
+        <v>2</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="F469">
+        <v>2</v>
+      </c>
+      <c r="G469">
+        <v>1</v>
+      </c>
+      <c r="H469">
+        <v>1</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>12</v>
+      </c>
+      <c r="C470">
+        <v>4</v>
+      </c>
+      <c r="D470">
+        <v>2</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470">
+        <v>2</v>
+      </c>
+      <c r="G470">
+        <v>1</v>
+      </c>
+      <c r="H470">
+        <v>1</v>
+      </c>
+      <c r="I470">
+        <v>0</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="K470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>13</v>
+      </c>
+      <c r="C471">
+        <v>4</v>
+      </c>
+      <c r="D471">
+        <v>2</v>
+      </c>
+      <c r="E471">
+        <v>1</v>
+      </c>
+      <c r="F471">
+        <v>3</v>
+      </c>
+      <c r="G471">
+        <v>1</v>
+      </c>
+      <c r="H471">
+        <v>1</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+      <c r="J471">
+        <v>1</v>
+      </c>
+      <c r="K471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>44</v>
+      </c>
+      <c r="C472">
+        <v>3</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>2</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>1</v>
+      </c>
+      <c r="H472">
+        <v>0</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>6</v>
+      </c>
+      <c r="C473">
+        <v>3</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>2</v>
+      </c>
+      <c r="F473">
+        <v>2</v>
+      </c>
+      <c r="G473">
+        <v>1</v>
+      </c>
+      <c r="H473">
+        <v>0</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>8</v>
+      </c>
+      <c r="C474">
+        <v>3</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474">
+        <v>2</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+      <c r="G474">
+        <v>1</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="J474">
+        <v>0</v>
+      </c>
+      <c r="K474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>7</v>
+      </c>
+      <c r="C475">
+        <v>3</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475">
+        <v>2</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475">
+        <v>1</v>
+      </c>
+      <c r="H475">
+        <v>0</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>0</v>
+      </c>
+      <c r="K475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>41</v>
+      </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476">
+        <v>2</v>
+      </c>
+      <c r="F476">
+        <v>4</v>
+      </c>
+      <c r="G476">
+        <v>1</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
+      </c>
+      <c r="I476">
+        <v>0</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>1</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+      <c r="E477">
+        <v>3</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+      <c r="I477">
+        <v>1</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>3</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>3</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+      <c r="I478">
+        <v>1</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>10</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479">
+        <v>3</v>
+      </c>
+      <c r="F479">
+        <v>0</v>
+      </c>
+      <c r="G479">
+        <v>1</v>
+      </c>
+      <c r="H479">
+        <v>0</v>
+      </c>
+      <c r="I479">
+        <v>1</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>15</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>3</v>
+      </c>
+      <c r="F480">
+        <v>2</v>
+      </c>
+      <c r="G480">
+        <v>1</v>
+      </c>
+      <c r="H480">
+        <v>0</v>
+      </c>
+      <c r="I480">
+        <v>1</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>11</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>3</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+      <c r="G481">
+        <v>1</v>
+      </c>
+      <c r="H481">
+        <v>0</v>
+      </c>
+      <c r="I481">
+        <v>1</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>26</v>
+      </c>
+      <c r="C482">
+        <v>5</v>
+      </c>
+      <c r="D482">
+        <v>3</v>
+      </c>
+      <c r="E482">
+        <v>5</v>
+      </c>
+      <c r="F482">
+        <v>0</v>
+      </c>
+      <c r="G482">
+        <v>1</v>
+      </c>
+      <c r="H482">
+        <v>0</v>
+      </c>
+      <c r="I482">
+        <v>1</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>32</v>
+      </c>
+      <c r="C483">
+        <v>5</v>
+      </c>
+      <c r="D483">
+        <v>3</v>
+      </c>
+      <c r="E483">
+        <v>5</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483">
+        <v>1</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>0</v>
+      </c>
+      <c r="K483">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D46A9-43BC-49B6-BCA8-F8C0E6A5792E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20FA334-DA66-49DC-868A-C94A73344331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="64">
   <si>
     <t>Boneco</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>Matheus jogador</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Tom</t>
   </si>
 </sst>
 </file>
@@ -542,11 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K483"/>
+  <dimension ref="A1:K507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K483" sqref="K483"/>
+      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A486" sqref="A486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16013,6 +16019,774 @@
         <v>6</v>
       </c>
     </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>38</v>
+      </c>
+      <c r="C484">
+        <v>2</v>
+      </c>
+      <c r="D484">
+        <v>3</v>
+      </c>
+      <c r="E484">
+        <v>2</v>
+      </c>
+      <c r="F484">
+        <v>2</v>
+      </c>
+      <c r="G484">
+        <v>1</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+      <c r="J484">
+        <v>0</v>
+      </c>
+      <c r="K484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>62</v>
+      </c>
+      <c r="C485">
+        <v>2</v>
+      </c>
+      <c r="D485">
+        <v>3</v>
+      </c>
+      <c r="E485">
+        <v>2</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+      <c r="G485">
+        <v>1</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
+        <v>0</v>
+      </c>
+      <c r="J485">
+        <v>0</v>
+      </c>
+      <c r="K485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>10</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+      <c r="D486">
+        <v>3</v>
+      </c>
+      <c r="E486">
+        <v>2</v>
+      </c>
+      <c r="F486">
+        <v>2</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+      <c r="J486">
+        <v>0</v>
+      </c>
+      <c r="K486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+      <c r="D487">
+        <v>3</v>
+      </c>
+      <c r="E487">
+        <v>2</v>
+      </c>
+      <c r="F487">
+        <v>1</v>
+      </c>
+      <c r="G487">
+        <v>1</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
+      </c>
+      <c r="I487">
+        <v>0</v>
+      </c>
+      <c r="J487">
+        <v>0</v>
+      </c>
+      <c r="K487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
+        <v>7</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+      <c r="D488">
+        <v>3</v>
+      </c>
+      <c r="E488">
+        <v>2</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>1</v>
+      </c>
+      <c r="H488">
+        <v>0</v>
+      </c>
+      <c r="I488">
+        <v>0</v>
+      </c>
+      <c r="J488">
+        <v>0</v>
+      </c>
+      <c r="K488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>26</v>
+      </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+      <c r="D489">
+        <v>3</v>
+      </c>
+      <c r="E489">
+        <v>2</v>
+      </c>
+      <c r="F489">
+        <v>0</v>
+      </c>
+      <c r="G489">
+        <v>1</v>
+      </c>
+      <c r="H489">
+        <v>0</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>30</v>
+      </c>
+      <c r="C490">
+        <v>4</v>
+      </c>
+      <c r="D490">
+        <v>2</v>
+      </c>
+      <c r="E490">
+        <v>1</v>
+      </c>
+      <c r="F490">
+        <v>0</v>
+      </c>
+      <c r="G490">
+        <v>1</v>
+      </c>
+      <c r="H490">
+        <v>1</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>13</v>
+      </c>
+      <c r="C491">
+        <v>4</v>
+      </c>
+      <c r="D491">
+        <v>2</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
+      <c r="F491">
+        <v>3</v>
+      </c>
+      <c r="G491">
+        <v>1</v>
+      </c>
+      <c r="H491">
+        <v>1</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="K491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>4</v>
+      </c>
+      <c r="C492">
+        <v>4</v>
+      </c>
+      <c r="D492">
+        <v>2</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492">
+        <v>0</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492">
+        <v>1</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>3</v>
+      </c>
+      <c r="C493">
+        <v>4</v>
+      </c>
+      <c r="D493">
+        <v>2</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+      <c r="F493">
+        <v>2</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+      <c r="H493">
+        <v>1</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>12</v>
+      </c>
+      <c r="C494">
+        <v>4</v>
+      </c>
+      <c r="D494">
+        <v>2</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494">
+        <v>3</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+      <c r="H494">
+        <v>1</v>
+      </c>
+      <c r="I494">
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <v>1</v>
+      </c>
+      <c r="K494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>25</v>
+      </c>
+      <c r="C495">
+        <v>4</v>
+      </c>
+      <c r="D495">
+        <v>2</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="F495">
+        <v>0</v>
+      </c>
+      <c r="G495">
+        <v>1</v>
+      </c>
+      <c r="H495">
+        <v>1</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="K495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>6</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+      <c r="E496">
+        <v>5</v>
+      </c>
+      <c r="F496">
+        <v>1</v>
+      </c>
+      <c r="G496">
+        <v>1</v>
+      </c>
+      <c r="H496">
+        <v>0</v>
+      </c>
+      <c r="I496">
+        <v>1</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>41</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>0</v>
+      </c>
+      <c r="E497">
+        <v>5</v>
+      </c>
+      <c r="F497">
+        <v>1</v>
+      </c>
+      <c r="G497">
+        <v>1</v>
+      </c>
+      <c r="H497">
+        <v>0</v>
+      </c>
+      <c r="I497">
+        <v>1</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>0</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498">
+        <v>5</v>
+      </c>
+      <c r="F498">
+        <v>1</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+      <c r="I498">
+        <v>1</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>63</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+      <c r="E499">
+        <v>5</v>
+      </c>
+      <c r="F499">
+        <v>0</v>
+      </c>
+      <c r="G499">
+        <v>1</v>
+      </c>
+      <c r="H499">
+        <v>0</v>
+      </c>
+      <c r="I499">
+        <v>1</v>
+      </c>
+      <c r="J499">
+        <v>0</v>
+      </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>14</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+      <c r="E500">
+        <v>5</v>
+      </c>
+      <c r="F500">
+        <v>1</v>
+      </c>
+      <c r="G500">
+        <v>1</v>
+      </c>
+      <c r="H500">
+        <v>0</v>
+      </c>
+      <c r="I500">
+        <v>1</v>
+      </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
+      <c r="K500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>32</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501">
+        <v>5</v>
+      </c>
+      <c r="F501">
+        <v>0</v>
+      </c>
+      <c r="G501">
+        <v>1</v>
+      </c>
+      <c r="H501">
+        <v>0</v>
+      </c>
+      <c r="I501">
+        <v>1</v>
+      </c>
+      <c r="J501">
+        <v>0</v>
+      </c>
+      <c r="K501">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A502" t="s">
+        <v>33</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+      <c r="D502">
+        <v>2</v>
+      </c>
+      <c r="E502">
+        <v>2</v>
+      </c>
+      <c r="F502">
+        <v>1</v>
+      </c>
+      <c r="G502">
+        <v>1</v>
+      </c>
+      <c r="H502">
+        <v>0</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>36</v>
+      </c>
+      <c r="C503">
+        <v>2</v>
+      </c>
+      <c r="D503">
+        <v>2</v>
+      </c>
+      <c r="E503">
+        <v>2</v>
+      </c>
+      <c r="F503">
+        <v>1</v>
+      </c>
+      <c r="G503">
+        <v>1</v>
+      </c>
+      <c r="H503">
+        <v>0</v>
+      </c>
+      <c r="I503">
+        <v>0</v>
+      </c>
+      <c r="J503">
+        <v>0</v>
+      </c>
+      <c r="K503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A504" t="s">
+        <v>40</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+      <c r="D504">
+        <v>2</v>
+      </c>
+      <c r="E504">
+        <v>2</v>
+      </c>
+      <c r="F504">
+        <v>1</v>
+      </c>
+      <c r="G504">
+        <v>1</v>
+      </c>
+      <c r="H504">
+        <v>0</v>
+      </c>
+      <c r="I504">
+        <v>0</v>
+      </c>
+      <c r="J504">
+        <v>0</v>
+      </c>
+      <c r="K504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A505" t="s">
+        <v>8</v>
+      </c>
+      <c r="C505">
+        <v>2</v>
+      </c>
+      <c r="D505">
+        <v>2</v>
+      </c>
+      <c r="E505">
+        <v>2</v>
+      </c>
+      <c r="F505">
+        <v>2</v>
+      </c>
+      <c r="G505">
+        <v>1</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A506" t="s">
+        <v>9</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="D506">
+        <v>2</v>
+      </c>
+      <c r="E506">
+        <v>2</v>
+      </c>
+      <c r="F506">
+        <v>1</v>
+      </c>
+      <c r="G506">
+        <v>1</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
+        <v>0</v>
+      </c>
+      <c r="J506">
+        <v>0</v>
+      </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A507" t="s">
+        <v>57</v>
+      </c>
+      <c r="C507">
+        <v>2</v>
+      </c>
+      <c r="D507">
+        <v>2</v>
+      </c>
+      <c r="E507">
+        <v>2</v>
+      </c>
+      <c r="F507">
+        <v>0</v>
+      </c>
+      <c r="G507">
+        <v>1</v>
+      </c>
+      <c r="H507">
+        <v>0</v>
+      </c>
+      <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="J507">
+        <v>0</v>
+      </c>
+      <c r="K507">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20FA334-DA66-49DC-868A-C94A73344331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788B363-7857-48A4-A17A-7D4ECB265649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,8 +551,8 @@
   <dimension ref="A1:K507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A486" sqref="A486"/>
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C488" sqref="C488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16024,7 +16024,7 @@
         <v>38</v>
       </c>
       <c r="C484">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D484">
         <v>3</v>
@@ -16056,7 +16056,7 @@
         <v>62</v>
       </c>
       <c r="C485">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D485">
         <v>3</v>
@@ -16088,7 +16088,7 @@
         <v>10</v>
       </c>
       <c r="C486">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D486">
         <v>3</v>
@@ -16120,7 +16120,7 @@
         <v>5</v>
       </c>
       <c r="C487">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D487">
         <v>3</v>
@@ -16152,7 +16152,7 @@
         <v>7</v>
       </c>
       <c r="C488">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D488">
         <v>3</v>
@@ -16184,7 +16184,7 @@
         <v>26</v>
       </c>
       <c r="C489">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D489">
         <v>3</v>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788B363-7857-48A4-A17A-7D4ECB265649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9975EA37-AE48-4364-AC98-2196B3AF6BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="67">
   <si>
     <t>Boneco</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>Tom</t>
+  </si>
+  <si>
+    <t>Leah</t>
+  </si>
+  <si>
+    <t>Heider</t>
+  </si>
+  <si>
+    <t>Paulinho</t>
   </si>
 </sst>
 </file>
@@ -548,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K507"/>
+  <dimension ref="A1:K528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C488" sqref="C488"/>
+      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J528" sqref="J528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16787,6 +16796,678 @@
         <v>4</v>
       </c>
     </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A508" t="s">
+        <v>10</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508">
+        <v>2</v>
+      </c>
+      <c r="E508">
+        <v>2</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+      <c r="G508">
+        <v>1</v>
+      </c>
+      <c r="H508">
+        <v>0</v>
+      </c>
+      <c r="I508">
+        <v>1</v>
+      </c>
+      <c r="J508">
+        <v>0</v>
+      </c>
+      <c r="K508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A509" t="s">
+        <v>5</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509">
+        <v>2</v>
+      </c>
+      <c r="E509">
+        <v>2</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+      <c r="G509">
+        <v>1</v>
+      </c>
+      <c r="H509">
+        <v>0</v>
+      </c>
+      <c r="I509">
+        <v>1</v>
+      </c>
+      <c r="J509">
+        <v>0</v>
+      </c>
+      <c r="K509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A510" t="s">
+        <v>35</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510">
+        <v>2</v>
+      </c>
+      <c r="E510">
+        <v>2</v>
+      </c>
+      <c r="F510">
+        <v>0</v>
+      </c>
+      <c r="G510">
+        <v>1</v>
+      </c>
+      <c r="H510">
+        <v>0</v>
+      </c>
+      <c r="I510">
+        <v>1</v>
+      </c>
+      <c r="J510">
+        <v>0</v>
+      </c>
+      <c r="K510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A511" t="s">
+        <v>38</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511">
+        <v>2</v>
+      </c>
+      <c r="E511">
+        <v>2</v>
+      </c>
+      <c r="F511">
+        <v>0</v>
+      </c>
+      <c r="G511">
+        <v>1</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
+      </c>
+      <c r="I511">
+        <v>1</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A512" t="s">
+        <v>8</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>2</v>
+      </c>
+      <c r="E512">
+        <v>2</v>
+      </c>
+      <c r="F512">
+        <v>0</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+      <c r="I512">
+        <v>1</v>
+      </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
+      <c r="K512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A513" t="s">
+        <v>9</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513">
+        <v>2</v>
+      </c>
+      <c r="E513">
+        <v>2</v>
+      </c>
+      <c r="F513">
+        <v>0</v>
+      </c>
+      <c r="G513">
+        <v>1</v>
+      </c>
+      <c r="H513">
+        <v>0</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>0</v>
+      </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A514" t="s">
+        <v>12</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>2</v>
+      </c>
+      <c r="E514">
+        <v>2</v>
+      </c>
+      <c r="F514">
+        <v>1</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+      <c r="H514">
+        <v>0</v>
+      </c>
+      <c r="I514">
+        <v>0</v>
+      </c>
+      <c r="J514">
+        <v>0</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A515" t="s">
+        <v>30</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515">
+        <v>2</v>
+      </c>
+      <c r="E515">
+        <v>2</v>
+      </c>
+      <c r="F515">
+        <v>0</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+      <c r="H515">
+        <v>0</v>
+      </c>
+      <c r="I515">
+        <v>0</v>
+      </c>
+      <c r="J515">
+        <v>0</v>
+      </c>
+      <c r="K515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A516" t="s">
+        <v>4</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516">
+        <v>2</v>
+      </c>
+      <c r="E516">
+        <v>2</v>
+      </c>
+      <c r="F516">
+        <v>0</v>
+      </c>
+      <c r="G516">
+        <v>1</v>
+      </c>
+      <c r="H516">
+        <v>0</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>0</v>
+      </c>
+      <c r="K516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A517" t="s">
+        <v>64</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517">
+        <v>2</v>
+      </c>
+      <c r="E517">
+        <v>2</v>
+      </c>
+      <c r="F517">
+        <v>1</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>0</v>
+      </c>
+      <c r="K517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A518" t="s">
+        <v>41</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518">
+        <v>2</v>
+      </c>
+      <c r="E518">
+        <v>2</v>
+      </c>
+      <c r="F518">
+        <v>2</v>
+      </c>
+      <c r="G518">
+        <v>1</v>
+      </c>
+      <c r="H518">
+        <v>0</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>0</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>33</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519">
+        <v>2</v>
+      </c>
+      <c r="E519">
+        <v>2</v>
+      </c>
+      <c r="F519">
+        <v>0</v>
+      </c>
+      <c r="G519">
+        <v>1</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+      <c r="I519">
+        <v>0</v>
+      </c>
+      <c r="J519">
+        <v>0</v>
+      </c>
+      <c r="K519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>0</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520">
+        <v>2</v>
+      </c>
+      <c r="E520">
+        <v>2</v>
+      </c>
+      <c r="F520">
+        <v>0</v>
+      </c>
+      <c r="G520">
+        <v>1</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520">
+        <v>0</v>
+      </c>
+      <c r="J520">
+        <v>0</v>
+      </c>
+      <c r="K520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A521" t="s">
+        <v>11</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521">
+        <v>2</v>
+      </c>
+      <c r="E521">
+        <v>2</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+      <c r="G521">
+        <v>1</v>
+      </c>
+      <c r="H521">
+        <v>0</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A522" t="s">
+        <v>3</v>
+      </c>
+      <c r="C522">
+        <v>4</v>
+      </c>
+      <c r="D522">
+        <v>2</v>
+      </c>
+      <c r="E522">
+        <v>1</v>
+      </c>
+      <c r="F522">
+        <v>0</v>
+      </c>
+      <c r="G522">
+        <v>1</v>
+      </c>
+      <c r="H522">
+        <v>1</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A523" t="s">
+        <v>65</v>
+      </c>
+      <c r="C523">
+        <v>4</v>
+      </c>
+      <c r="D523">
+        <v>2</v>
+      </c>
+      <c r="E523">
+        <v>1</v>
+      </c>
+      <c r="F523">
+        <v>1</v>
+      </c>
+      <c r="G523">
+        <v>1</v>
+      </c>
+      <c r="H523">
+        <v>1</v>
+      </c>
+      <c r="I523">
+        <v>0</v>
+      </c>
+      <c r="J523">
+        <v>0</v>
+      </c>
+      <c r="K523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A524" t="s">
+        <v>1</v>
+      </c>
+      <c r="C524">
+        <v>4</v>
+      </c>
+      <c r="D524">
+        <v>2</v>
+      </c>
+      <c r="E524">
+        <v>1</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+      <c r="G524">
+        <v>1</v>
+      </c>
+      <c r="H524">
+        <v>1</v>
+      </c>
+      <c r="I524">
+        <v>0</v>
+      </c>
+      <c r="J524">
+        <v>0</v>
+      </c>
+      <c r="K524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A525" t="s">
+        <v>66</v>
+      </c>
+      <c r="C525">
+        <v>4</v>
+      </c>
+      <c r="D525">
+        <v>2</v>
+      </c>
+      <c r="E525">
+        <v>1</v>
+      </c>
+      <c r="F525">
+        <v>0</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525">
+        <v>1</v>
+      </c>
+      <c r="I525">
+        <v>0</v>
+      </c>
+      <c r="J525">
+        <v>0</v>
+      </c>
+      <c r="K525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A526" t="s">
+        <v>6</v>
+      </c>
+      <c r="C526">
+        <v>4</v>
+      </c>
+      <c r="D526">
+        <v>2</v>
+      </c>
+      <c r="E526">
+        <v>1</v>
+      </c>
+      <c r="F526">
+        <v>6</v>
+      </c>
+      <c r="G526">
+        <v>1</v>
+      </c>
+      <c r="H526">
+        <v>1</v>
+      </c>
+      <c r="I526">
+        <v>0</v>
+      </c>
+      <c r="J526">
+        <v>1</v>
+      </c>
+      <c r="K526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A527" t="s">
+        <v>26</v>
+      </c>
+      <c r="C527">
+        <v>5</v>
+      </c>
+      <c r="D527">
+        <v>4</v>
+      </c>
+      <c r="E527">
+        <v>2</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527">
+        <v>1</v>
+      </c>
+      <c r="H527">
+        <v>1</v>
+      </c>
+      <c r="I527">
+        <v>0</v>
+      </c>
+      <c r="J527">
+        <v>0</v>
+      </c>
+      <c r="K527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A528" t="s">
+        <v>57</v>
+      </c>
+      <c r="C528">
+        <v>2</v>
+      </c>
+      <c r="D528">
+        <v>4</v>
+      </c>
+      <c r="E528">
+        <v>5</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+      <c r="G528">
+        <v>1</v>
+      </c>
+      <c r="H528">
+        <v>0</v>
+      </c>
+      <c r="I528">
+        <v>1</v>
+      </c>
+      <c r="J528">
+        <v>0</v>
+      </c>
+      <c r="K528">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2024_01.xlsx
+++ b/pelada_sabado_2024_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9975EA37-AE48-4364-AC98-2196B3AF6BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B1D559-0670-4A1A-8F8C-A5E4A137105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="67">
   <si>
     <t>Boneco</t>
   </si>
@@ -557,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K528"/>
+  <dimension ref="A1:K552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J528" sqref="J528"/>
+      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C552" sqref="C552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17468,6 +17468,774 @@
         <v>8</v>
       </c>
     </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A529" t="s">
+        <v>15</v>
+      </c>
+      <c r="C529">
+        <v>2</v>
+      </c>
+      <c r="D529">
+        <v>3</v>
+      </c>
+      <c r="E529">
+        <v>1</v>
+      </c>
+      <c r="F529">
+        <v>2</v>
+      </c>
+      <c r="G529">
+        <v>1</v>
+      </c>
+      <c r="H529">
+        <v>0</v>
+      </c>
+      <c r="I529">
+        <v>0</v>
+      </c>
+      <c r="J529">
+        <v>0</v>
+      </c>
+      <c r="K529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A530" t="s">
+        <v>14</v>
+      </c>
+      <c r="C530">
+        <v>2</v>
+      </c>
+      <c r="D530">
+        <v>3</v>
+      </c>
+      <c r="E530">
+        <v>1</v>
+      </c>
+      <c r="F530">
+        <v>0</v>
+      </c>
+      <c r="G530">
+        <v>1</v>
+      </c>
+      <c r="H530">
+        <v>0</v>
+      </c>
+      <c r="I530">
+        <v>0</v>
+      </c>
+      <c r="J530">
+        <v>0</v>
+      </c>
+      <c r="K530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A531" t="s">
+        <v>35</v>
+      </c>
+      <c r="C531">
+        <v>2</v>
+      </c>
+      <c r="D531">
+        <v>3</v>
+      </c>
+      <c r="E531">
+        <v>1</v>
+      </c>
+      <c r="F531">
+        <v>2</v>
+      </c>
+      <c r="G531">
+        <v>1</v>
+      </c>
+      <c r="H531">
+        <v>0</v>
+      </c>
+      <c r="I531">
+        <v>0</v>
+      </c>
+      <c r="J531">
+        <v>0</v>
+      </c>
+      <c r="K531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A532" t="s">
+        <v>5</v>
+      </c>
+      <c r="C532">
+        <v>2</v>
+      </c>
+      <c r="D532">
+        <v>3</v>
+      </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+      <c r="G532">
+        <v>1</v>
+      </c>
+      <c r="H532">
+        <v>0</v>
+      </c>
+      <c r="I532">
+        <v>0</v>
+      </c>
+      <c r="J532">
+        <v>0</v>
+      </c>
+      <c r="K532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A533" t="s">
+        <v>10</v>
+      </c>
+      <c r="C533">
+        <v>2</v>
+      </c>
+      <c r="D533">
+        <v>3</v>
+      </c>
+      <c r="E533">
+        <v>1</v>
+      </c>
+      <c r="F533">
+        <v>2</v>
+      </c>
+      <c r="G533">
+        <v>1</v>
+      </c>
+      <c r="H533">
+        <v>0</v>
+      </c>
+      <c r="I533">
+        <v>0</v>
+      </c>
+      <c r="J533">
+        <v>0</v>
+      </c>
+      <c r="K533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A534" t="s">
+        <v>25</v>
+      </c>
+      <c r="C534">
+        <v>2</v>
+      </c>
+      <c r="D534">
+        <v>3</v>
+      </c>
+      <c r="E534">
+        <v>1</v>
+      </c>
+      <c r="F534">
+        <v>0</v>
+      </c>
+      <c r="G534">
+        <v>1</v>
+      </c>
+      <c r="H534">
+        <v>0</v>
+      </c>
+      <c r="I534">
+        <v>0</v>
+      </c>
+      <c r="J534">
+        <v>0</v>
+      </c>
+      <c r="K534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A535" t="s">
+        <v>64</v>
+      </c>
+      <c r="C535">
+        <v>3</v>
+      </c>
+      <c r="D535">
+        <v>2</v>
+      </c>
+      <c r="E535">
+        <v>2</v>
+      </c>
+      <c r="F535">
+        <v>1</v>
+      </c>
+      <c r="G535">
+        <v>1</v>
+      </c>
+      <c r="H535">
+        <v>1</v>
+      </c>
+      <c r="I535">
+        <v>0</v>
+      </c>
+      <c r="J535">
+        <v>0</v>
+      </c>
+      <c r="K535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A536" t="s">
+        <v>9</v>
+      </c>
+      <c r="C536">
+        <v>3</v>
+      </c>
+      <c r="D536">
+        <v>2</v>
+      </c>
+      <c r="E536">
+        <v>2</v>
+      </c>
+      <c r="F536">
+        <v>0</v>
+      </c>
+      <c r="G536">
+        <v>1</v>
+      </c>
+      <c r="H536">
+        <v>1</v>
+      </c>
+      <c r="I536">
+        <v>0</v>
+      </c>
+      <c r="J536">
+        <v>0</v>
+      </c>
+      <c r="K536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A537" t="s">
+        <v>3</v>
+      </c>
+      <c r="C537">
+        <v>3</v>
+      </c>
+      <c r="D537">
+        <v>2</v>
+      </c>
+      <c r="E537">
+        <v>2</v>
+      </c>
+      <c r="F537">
+        <v>2</v>
+      </c>
+      <c r="G537">
+        <v>1</v>
+      </c>
+      <c r="H537">
+        <v>1</v>
+      </c>
+      <c r="I537">
+        <v>0</v>
+      </c>
+      <c r="J537">
+        <v>0</v>
+      </c>
+      <c r="K537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A538" t="s">
+        <v>45</v>
+      </c>
+      <c r="C538">
+        <v>3</v>
+      </c>
+      <c r="D538">
+        <v>2</v>
+      </c>
+      <c r="E538">
+        <v>2</v>
+      </c>
+      <c r="F538">
+        <v>0</v>
+      </c>
+      <c r="G538">
+        <v>1</v>
+      </c>
+      <c r="H538">
+        <v>1</v>
+      </c>
+      <c r="I538">
+        <v>0</v>
+      </c>
+      <c r="J538">
+        <v>0</v>
+      </c>
+      <c r="K538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A539" t="s">
+        <v>41</v>
+      </c>
+      <c r="C539">
+        <v>3</v>
+      </c>
+      <c r="D539">
+        <v>2</v>
+      </c>
+      <c r="E539">
+        <v>2</v>
+      </c>
+      <c r="F539">
+        <v>3</v>
+      </c>
+      <c r="G539">
+        <v>1</v>
+      </c>
+      <c r="H539">
+        <v>1</v>
+      </c>
+      <c r="I539">
+        <v>0</v>
+      </c>
+      <c r="J539">
+        <v>0</v>
+      </c>
+      <c r="K539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A540" t="s">
+        <v>26</v>
+      </c>
+      <c r="C540">
+        <v>3</v>
+      </c>
+      <c r="D540">
+        <v>2</v>
+      </c>
+      <c r="E540">
+        <v>2</v>
+      </c>
+      <c r="F540">
+        <v>0</v>
+      </c>
+      <c r="G540">
+        <v>1</v>
+      </c>
+      <c r="H540">
+        <v>1</v>
+      </c>
+      <c r="I540">
+        <v>0</v>
+      </c>
+      <c r="J540">
+        <v>1</v>
+      </c>
+      <c r="K540">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A541" t="s">
+        <v>13</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+      <c r="E541">
+        <v>3</v>
+      </c>
+      <c r="F541">
+        <v>1</v>
+      </c>
+      <c r="G541">
+        <v>1</v>
+      </c>
+      <c r="H541">
+        <v>0</v>
+      </c>
+      <c r="I541">
+        <v>1</v>
+      </c>
+      <c r="J541">
+        <v>0</v>
+      </c>
+      <c r="K541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A542" t="s">
+        <v>40</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+      <c r="E542">
+        <v>3</v>
+      </c>
+      <c r="F542">
+        <v>0</v>
+      </c>
+      <c r="G542">
+        <v>1</v>
+      </c>
+      <c r="H542">
+        <v>0</v>
+      </c>
+      <c r="I542">
+        <v>1</v>
+      </c>
+      <c r="J542">
+        <v>0</v>
+      </c>
+      <c r="K542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A543" t="s">
+        <v>4</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>3</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+      <c r="G543">
+        <v>1</v>
+      </c>
+      <c r="H543">
+        <v>0</v>
+      </c>
+      <c r="I543">
+        <v>1</v>
+      </c>
+      <c r="J543">
+        <v>0</v>
+      </c>
+      <c r="K543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A544" t="s">
+        <v>33</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>3</v>
+      </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
+      <c r="G544">
+        <v>1</v>
+      </c>
+      <c r="H544">
+        <v>0</v>
+      </c>
+      <c r="I544">
+        <v>1</v>
+      </c>
+      <c r="J544">
+        <v>0</v>
+      </c>
+      <c r="K544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+      <c r="E545">
+        <v>3</v>
+      </c>
+      <c r="F545">
+        <v>1</v>
+      </c>
+      <c r="G545">
+        <v>1</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
+      <c r="I545">
+        <v>1</v>
+      </c>
+      <c r="J545">
+        <v>0</v>
+      </c>
+      <c r="K545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A546" t="s">
+        <v>57</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
+      </c>
+      <c r="E546">
+        <v>3</v>
+      </c>
+      <c r="F546">
+        <v>0</v>
+      </c>
+      <c r="G546">
+        <v>1</v>
+      </c>
+      <c r="H546">
+        <v>0</v>
+      </c>
+      <c r="I546">
+        <v>1</v>
+      </c>
+      <c r="J546">
+        <v>0</v>
+      </c>
+      <c r="K546">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A547" t="s">
+        <v>38</v>
+      </c>
+      <c r="C547">
+        <v>2</v>
+      </c>
+      <c r="D547">
+        <v>2</v>
+      </c>
+      <c r="E547">
+        <v>2</v>
+      </c>
+      <c r="F547">
+        <v>1</v>
+      </c>
+      <c r="G547">
+        <v>1</v>
+      </c>
+      <c r="H547">
+        <v>0</v>
+      </c>
+      <c r="I547">
+        <v>0</v>
+      </c>
+      <c r="J547">
+        <v>0</v>
+      </c>
+      <c r="K547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A548" t="s">
+        <v>1</v>
+      </c>
+      <c r="C548">
+        <v>2</v>
+      </c>
+      <c r="D548">
+        <v>2</v>
+      </c>
+      <c r="E548">
+        <v>2</v>
+      </c>
+      <c r="F548">
+        <v>1</v>
+      </c>
+      <c r="G548">
+        <v>1</v>
+      </c>
+      <c r="H548">
+        <v>0</v>
+      </c>
+      <c r="I548">
+        <v>0</v>
+      </c>
+      <c r="J548">
+        <v>0</v>
+      </c>
+      <c r="K548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A549" t="s">
+        <v>6</v>
+      </c>
+      <c r="C549">
+        <v>2</v>
+      </c>
+      <c r="D549">
+        <v>2</v>
+      </c>
+      <c r="E549">
+        <v>2</v>
+      </c>
+      <c r="F549">
+        <v>2</v>
+      </c>
+      <c r="G549">
+        <v>1</v>
+      </c>
+      <c r="H549">
+        <v>0</v>
+      </c>
+      <c r="I549">
+        <v>0</v>
+      </c>
+      <c r="J549">
+        <v>0</v>
+      </c>
+      <c r="K549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A550" t="s">
+        <v>2</v>
+      </c>
+      <c r="C550">
+        <v>2</v>
+      </c>
+      <c r="D550">
+        <v>2</v>
+      </c>
+      <c r="E550">
+        <v>2</v>
+      </c>
+      <c r="F550">
+        <v>0</v>
+      </c>
+      <c r="G550">
+        <v>1</v>
+      </c>
+      <c r="H550">
+        <v>0</v>
+      </c>
+      <c r="I550">
+        <v>0</v>
+      </c>
+      <c r="J550">
+        <v>0</v>
+      </c>
+      <c r="K550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A551" t="s">
+        <v>8</v>
+      </c>
+      <c r="C551">
+        <v>2</v>
+      </c>
+      <c r="D551">
+        <v>2</v>
+      </c>
+      <c r="E551">
+        <v>2</v>
+      </c>
+      <c r="F551">
+        <v>1</v>
+      </c>
+      <c r="G551">
+        <v>1</v>
+      </c>
+      <c r="H551">
+        <v>0</v>
+      </c>
+      <c r="I551">
+        <v>0</v>
+      </c>
+      <c r="J551">
+        <v>0</v>
+      </c>
+      <c r="K551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A552" t="s">
+        <v>32</v>
+      </c>
+      <c r="C552">
+        <v>2</v>
+      </c>
+      <c r="D552">
+        <v>2</v>
+      </c>
+      <c r="E552">
+        <v>2</v>
+      </c>
+      <c r="F552">
+        <v>0</v>
+      </c>
+      <c r="G552">
+        <v>1</v>
+      </c>
+      <c r="H552">
+        <v>0</v>
+      </c>
+      <c r="I552">
+        <v>0</v>
+      </c>
+      <c r="J552">
+        <v>0</v>
+      </c>
+      <c r="K552">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
